--- a/vip-server/src/main/webapp/static/doc/券号导入模板.xlsx
+++ b/vip-server/src/main/webapp/static/doc/券号导入模板.xlsx
@@ -22,7 +22,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T4FK2VANQTCEIZCO</t>
+    <t>T4FK-2VAN-QTCE-IZCO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
